--- a/iselUssSyncV2/OutputWSLorientation/20220524_1231_D50L474W30Q7.5U0.26H36.3G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1231_D50L474W30Q7.5U0.26H36.3G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.016255817880957191</v>
+        <v>0.0081279089404785957</v>
       </c>
       <c r="O2" s="0">
-        <v>0.56693757141956236</v>
+        <v>0.28346878570978118</v>
       </c>
       <c r="P2" s="0">
         <v>66.643006666666679</v>
@@ -356,10 +356,10 @@
         <v>0.65376789540000013</v>
       </c>
       <c r="R2" s="0">
-        <v>1.1756266050759285</v>
+        <v>2.3512532101518571</v>
       </c>
       <c r="S2" s="0">
-        <v>0.22048061921915182</v>
+        <v>1.207173324845497</v>
       </c>
       <c r="T2" s="0">
         <v>0.020944328725842839</v>
@@ -383,16 +383,16 @@
         <v>120000</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.55610165045369664</v>
+        <v>0.27805082522684832</v>
       </c>
       <c r="AB2" s="0">
-        <v>2.9651943908510723</v>
+        <v>0.54156920298389977</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.7033520820285388</v>
+        <v>1.3516760410142694</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.2682224900921664</v>
+        <v>0.63411124504608318</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>5.6685464728796111</v>
+        <v>1.8932452439981691</v>
       </c>
     </row>
   </sheetData>
